--- a/longitude - latitude/peklazplozenci_toponyms.xlsx
+++ b/longitude - latitude/peklazplozenci_toponyms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Změlík\Desktop\GIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Změlík\Desktop\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2D48A-80E0-44C3-A194-8654BA6CDA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9000592-5261-4436-848B-2F1E35CEC5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="15" windowWidth="23295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>longitude</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>Novoměstská radnice</t>
+  </si>
+  <si>
+    <t>dnes Štěpánská</t>
+  </si>
+  <si>
+    <t>stav</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -591,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +614,13 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>10</v>
@@ -619,8 +628,11 @@
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,8 +645,14 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -647,8 +665,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,8 +685,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -681,8 +705,11 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -695,8 +722,11 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -709,8 +739,11 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -726,8 +759,11 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -743,8 +779,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -760,8 +799,11 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -774,8 +816,11 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -791,8 +836,11 @@
       <c r="E12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -805,8 +853,11 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -819,8 +870,11 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -833,8 +887,11 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -846,6 +903,9 @@
       </c>
       <c r="D16" t="s">
         <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">

--- a/longitude - latitude/peklazplozenci_toponyms.xlsx
+++ b/longitude - latitude/peklazplozenci_toponyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Změlík\Desktop\korpusprozy\longitude - latitude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9000592-5261-4436-848B-2F1E35CEC5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF63BF-1BA1-4335-A0F4-FB41974802E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1815" yWindow="15" windowWidth="23295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>longitude</t>
   </si>
@@ -140,12 +140,6 @@
   </si>
   <si>
     <t>Jindřišská ulice</t>
-  </si>
-  <si>
-    <t>Jordánské jezero</t>
-  </si>
-  <si>
-    <t>dnes Mrtvé moře</t>
   </si>
   <si>
     <t>Golgata</t>
@@ -600,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -646,10 +640,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -686,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -723,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -740,7 +734,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -760,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -800,7 +794,7 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -817,7 +811,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -837,7 +831,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -854,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,7 +882,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,10 +899,10 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -921,8 +915,11 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,8 +932,11 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -949,8 +949,11 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -963,8 +966,11 @@
       <c r="D20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -980,8 +986,11 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -994,8 +1003,11 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1008,8 +1020,11 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>36</v>
       </c>
@@ -1025,8 +1040,11 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1039,8 +1057,11 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
@@ -1053,16 +1074,19 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>31.541740799999999</v>
+        <v>31.773800000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>35.479268599999997</v>
+        <v>35.224299999999999</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1070,44 +1094,53 @@
       <c r="E27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="1">
-        <v>31.773800000000001</v>
+        <v>31.414524199999999</v>
       </c>
       <c r="C28" s="1">
-        <v>35.224299999999999</v>
+        <v>34.649454400000003</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>29.860874200000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>31.191039199999999</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" s="1">
-        <v>31.414524199999999</v>
-      </c>
-      <c r="C29" s="1">
-        <v>34.649454400000003</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>29.860874200000001</v>
@@ -1116,21 +1149,24 @@
         <v>31.191039199999999</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B31" s="1">
-        <v>29.860874200000001</v>
+        <v>50.075498000000003</v>
       </c>
       <c r="C31" s="1">
-        <v>31.191039199999999</v>
+        <v>14.429262</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1138,184 +1174,200 @@
       <c r="E31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="1">
-        <v>50.075498000000003</v>
+        <v>50.087066900000003</v>
       </c>
       <c r="C32" s="1">
-        <v>14.429262</v>
+        <v>14.4204475</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B33" s="1">
-        <v>50.087066900000003</v>
+        <v>50.090074199999997</v>
       </c>
       <c r="C33" s="1">
-        <v>14.4204475</v>
+        <v>14.4185958</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="1">
-        <v>50.090074199999997</v>
+        <v>50.084297499999998</v>
       </c>
       <c r="C34" s="1">
-        <v>14.4185958</v>
+        <v>14.417469199999999</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="1">
+        <v>50.080176899999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14.418035</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="1">
-        <v>50.084297499999998</v>
-      </c>
-      <c r="C35" s="1">
-        <v>14.417469199999999</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="1">
+        <v>50.083539999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>14.39508</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="1">
-        <v>50.080176899999998</v>
-      </c>
-      <c r="C36" s="1">
-        <v>14.418035</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="1">
+        <v>50.087145800000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14.3852542</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="1">
-        <v>50.083539999999999</v>
-      </c>
-      <c r="C37" s="1">
-        <v>14.39508</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="1">
+        <v>50.915323899999997</v>
+      </c>
+      <c r="C38" s="1">
+        <v>15.0838439</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="1">
-        <v>50.087145800000002</v>
-      </c>
-      <c r="C38" s="1">
-        <v>14.3852542</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="1">
+        <v>50.0807</v>
+      </c>
+      <c r="C39" s="1">
+        <v>14.4198</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="1">
-        <v>50.915323899999997</v>
-      </c>
-      <c r="C39" s="1">
-        <v>15.0838439</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="1">
+        <v>41.893320299999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>12.482931900000001</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>12.02375</v>
+      </c>
+      <c r="C41" s="1">
+        <v>77.060399700000005</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="1">
-        <v>50.0807</v>
-      </c>
-      <c r="C40" s="1">
-        <v>14.4198</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="F41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="1">
-        <v>41.893320299999999</v>
-      </c>
-      <c r="C41" s="1">
-        <v>12.482931900000001</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B42" s="1">
-        <v>12.02375</v>
+        <v>50.078223100000002</v>
       </c>
       <c r="C42" s="1">
-        <v>77.060399700000005</v>
+        <v>14.4211308</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="1">
-        <v>50.078223100000002</v>
-      </c>
-      <c r="C43" s="1">
-        <v>14.4211308</v>
-      </c>
-      <c r="D43" t="s">
         <v>12</v>
       </c>
     </row>
